--- a/matlab/benchmarks.xlsx
+++ b/matlab/benchmarks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
   <si>
     <t>Latent Factor</t>
   </si>
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +413,7 @@
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>300</v>
       </c>
@@ -426,8 +426,20 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
+      <c r="J1" s="1">
+        <v>500</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -444,8 +456,24 @@
         <v>5</v>
       </c>
       <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -470,8 +498,32 @@
       <c r="I3" t="s">
         <v>4</v>
       </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -499,8 +551,32 @@
       <c r="I4">
         <v>0.24679999999999999</v>
       </c>
+      <c r="J4">
+        <v>0.2445</v>
+      </c>
+      <c r="K4">
+        <v>0.24440000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.245</v>
+      </c>
+      <c r="M4">
+        <v>0.24490000000000001</v>
+      </c>
+      <c r="N4">
+        <v>0.24890000000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.24809999999999999</v>
+      </c>
+      <c r="P4">
+        <v>0.2495</v>
+      </c>
+      <c r="Q4">
+        <v>0.24859999999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -528,8 +604,32 @@
       <c r="I5">
         <v>0.2452</v>
       </c>
+      <c r="J5" s="2">
+        <v>0.24329999999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.24349999999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.24349999999999999</v>
+      </c>
+      <c r="M5">
+        <v>0.24390000000000001</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.248</v>
+      </c>
+      <c r="O5">
+        <v>0.24740000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.24859999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>0.248</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -557,9 +657,39 @@
       <c r="I6">
         <v>0.14030000000000001</v>
       </c>
+      <c r="J6">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.1421</v>
+      </c>
+      <c r="L6">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="M6">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="N6">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.1633</v>
+      </c>
+      <c r="P6">
+        <v>0.127</v>
+      </c>
+      <c r="Q6">
+        <v>0.1636</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B2:C2"/>
